--- a/Global Demand Generation - MoM.xlsx
+++ b/Global Demand Generation - MoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliaberca/Desktop/Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF6E5DA-8145-3C47-9B33-653AF1AEE0BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95809DF-FA2B-BB43-9C25-13BDAF64259D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" firstSheet="9" activeTab="10" xr2:uid="{6E2EB198-484D-EA42-9D16-87D58E5E0F79}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" firstSheet="1" activeTab="6" xr2:uid="{6E2EB198-484D-EA42-9D16-87D58E5E0F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="31" r:id="rId1"/>
@@ -46,7 +46,6 @@
     <sheet name="Campaigns_with_MQLs" sheetId="78" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,6 +53,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="1760">
   <si>
     <t>Salesforce</t>
   </si>
@@ -4489,9 +4489,6 @@
     <t xml:space="preserve">  Campaign_type:</t>
   </si>
   <si>
-    <t xml:space="preserve">    sql: ${TABLE}.campaign_type  </t>
-  </si>
-  <si>
     <t xml:space="preserve">    Campaign_Influenced_Opps:</t>
   </si>
   <si>
@@ -4573,9 +4570,6 @@
     <t>ELSE 'Other' END as geo,</t>
   </si>
   <si>
-    <t xml:space="preserve">isnull(trunc(recent_conversion_date) , case when lower (leadsource) not like ('website%') then trunc(createdate) end ) as activity_date  </t>
-  </si>
-  <si>
     <t>/*where  trunc(recent_conversion_date) between '2019-01-01' and '2018-02-28'</t>
   </si>
   <si>
@@ -4594,46 +4588,22 @@
     <t>createdate activity_date</t>
   </si>
   <si>
-    <t>select 'MQLs' as metric, 3 as metric_number,   count(new_date_time_c) as metric_value, isnull(region_text_c, 'Other')  as geo, --335145  results from IS2</t>
-  </si>
-  <si>
     <t>trunc(new_date_time_c) as activity_date</t>
   </si>
   <si>
-    <t xml:space="preserve">group by trunc(new_date_time_c) , isnull(region_text_c, 'Other') </t>
-  </si>
-  <si>
-    <t>select 'SQLs' as metric, 4 as metric_number,   count( qualified_date_time_c)  as metric_value, isnull(region_text_c, 'Other')  as geo, --335145  results from IS2</t>
-  </si>
-  <si>
     <t>trunc(qualified_date_time_c) as activity_date</t>
   </si>
   <si>
     <t xml:space="preserve">group by trunc(qualified_date_time_c), isnull(region_text_c, 'Other') </t>
   </si>
   <si>
-    <t>'Opps Generated/Influenced by Marketing (Not Won)' as metric, 5 as metric_number, count(distinct oppt_id) as metric_value, geo, activity_date</t>
-  </si>
-  <si>
-    <t>(Select  tab.oppt_id, tab.activity_date,tab.geo_c as geo,</t>
-  </si>
-  <si>
     <t xml:space="preserve">trunc(sfdc_warehouse_opportunity.created_date) activity_date,  </t>
   </si>
   <si>
     <t xml:space="preserve">group by  tab.oppt_id, tab.activity_date,tab.geo_c) </t>
   </si>
   <si>
-    <t>group by activity_date, geo</t>
-  </si>
-  <si>
     <t xml:space="preserve">'Opps Generated/Influenced by Marketing (Won)' as metric, 6 as metric_number,  </t>
-  </si>
-  <si>
-    <t>count (distinct oppt_id)  as metric_value , geo, activity_date</t>
-  </si>
-  <si>
-    <t>and   sfdc_warehouse_opportunity.stage_name in ('Closed Won Booked','Closed Won Pending')) tab</t>
   </si>
   <si>
     <t>Funnel_Counts_Monthly:</t>
@@ -5232,6 +5202,156 @@
   </si>
   <si>
     <t>activity_date, tab.campaign_type;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sql: ${TABLE}.campaign_type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sql: ${TABLE}.campaign_type ||${TABLE}.created_date||${TABLE}.geo_c||${TABLE}.Metric_number</t>
+  </si>
+  <si>
+    <t>select 'Marketing Interaction' as metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> count(*) as metric_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Africa'	 THEN 'EMEA'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Americas'	 THEN 'AMER'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'ANZ'	 THEN 'APAC'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'APAC'	 THEN 'APAC'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'EMEA'	 THEN 'EMEA'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Europe'	 THEN 'EMEA'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'India'	 THEN 'India'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Japan'	 THEN 'Japan'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Middle East'	 THEN 'EMEA'	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'North America'	 THEN 'AMER'	</t>
+  </si>
+  <si>
+    <t>WHEN uipath_region = 'South America'	 THEN 'AMER'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN uipath_region = 'Southeast Asia'	 THEN 'APAC'	</t>
+  </si>
+  <si>
+    <t>ELSE 'Other' END as geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isnull(trunc(recent_conversion_date) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case when lower (leadsource) not like ('website%') then trunc(createdate) end ) as activity_date  </t>
+  </si>
+  <si>
+    <t>group by 4</t>
+  </si>
+  <si>
+    <t>select 'Net New' as metric</t>
+  </si>
+  <si>
+    <t>select 'MQLs' as metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   count(new_date_time_c) as metric_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isnull(region_text_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Other')  as geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --335145  results from IS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group by trunc(new_date_time_c) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Other') </t>
+  </si>
+  <si>
+    <t>select 'SQLs' as metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   count( qualified_date_time_c)  as metric_value</t>
+  </si>
+  <si>
+    <t>group by trunc(qualified_date_time_c)</t>
+  </si>
+  <si>
+    <t>'Opps Generated/Influenced by Marketing (Not Won)' as metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> count(distinct oppt_id) as metric_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activity_date</t>
+  </si>
+  <si>
+    <t>(Select  tab.oppt_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tab.created_date as activity_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tab.geo_c as geo</t>
+  </si>
+  <si>
+    <t>LISTAGG(distinct tab.campaign_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '</t>
+  </si>
+  <si>
+    <t>') WITHIN GROUP (ORDER BY tab.oppt_id) AS campaign_type</t>
+  </si>
+  <si>
+    <t>(select distinct  sfdc_warehouse_campaign.id campaign_id</t>
+  </si>
+  <si>
+    <t>and sfdc_warehouse_campaign.type not like 'Lead Development') tab</t>
+  </si>
+  <si>
+    <t>group by  tab.oppt_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tab.type) </t>
+  </si>
+  <si>
+    <t>group by activity_date</t>
+  </si>
+  <si>
+    <t>'Opps Generated/Influenced by Marketing (Won)' as metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count (distinct oppt_id)  as metric_value </t>
+  </si>
+  <si>
+    <t>and   sfdc_warehouse_opportunity.stage_name in ('Closed Won Booked'</t>
+  </si>
+  <si>
+    <t>'Closed Won Pending')</t>
   </si>
 </sst>
 </file>
@@ -5710,7 +5830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1436</v>
       </c>
@@ -5724,7 +5844,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1437</v>
       </c>
@@ -5794,7 +5914,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1434</v>
       </c>
@@ -5808,7 +5928,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>1441</v>
       </c>
@@ -5849,7 +5969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>1443</v>
       </c>
@@ -6010,42 +6130,42 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="172" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="153" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>1450</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="4" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -6111,7 +6231,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6121,108 +6241,108 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B6" t="s">
         <v>1483</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B7" t="s">
         <v>1485</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B8" t="s">
         <v>1487</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B12" t="s">
         <v>1492</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B13" t="s">
         <v>1494</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B15" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B16" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B17" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6237,7 +6357,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6252,7 +6372,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6262,108 +6382,108 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B28" t="s">
         <v>1483</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B29" t="s">
         <v>1485</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B30" t="s">
         <v>1487</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B31" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B32" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B33" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B34" t="s">
         <v>1492</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B35" t="s">
         <v>1494</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B37" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B38" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B39" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6378,12 +6498,12 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6393,12 +6513,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -6408,12 +6528,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -6423,12 +6543,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -6438,12 +6558,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
@@ -6458,12 +6578,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -6473,7 +6593,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
@@ -6483,12 +6603,12 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
@@ -6503,7 +6623,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -6563,7 +6683,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -6578,12 +6698,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -6593,7 +6713,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -6603,12 +6723,12 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -6623,7 +6743,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -6673,7 +6793,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -6688,7 +6808,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
@@ -6705,7 +6825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC5AFD6-0971-674C-9C10-CD0387FF7B45}">
   <dimension ref="A2:B489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
@@ -6718,7 +6838,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6728,113 +6848,113 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B6" t="s">
         <v>1483</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B7" t="s">
         <v>1485</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B8" t="s">
         <v>1487</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B12" t="s">
         <v>1492</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B13" t="s">
         <v>1494</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B15" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B16" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B17" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6844,7 +6964,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6859,7 +6979,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6869,113 +6989,113 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B28" t="s">
         <v>1483</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B29" t="s">
         <v>1485</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B30" t="s">
         <v>1487</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B31" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B32" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B33" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B34" t="s">
         <v>1492</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B35" t="s">
         <v>1494</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B37" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B38" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B39" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6985,12 +7105,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -7005,17 +7125,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -7040,17 +7160,17 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -7070,22 +7190,22 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -7100,17 +7220,17 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -7135,17 +7255,17 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -7165,17 +7285,17 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
@@ -7190,12 +7310,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -7205,7 +7325,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -7230,7 +7350,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -7305,12 +7425,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
@@ -7325,7 +7445,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -7335,7 +7455,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
@@ -7575,7 +7695,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -7665,7 +7785,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
@@ -7680,7 +7800,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -7690,7 +7810,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
@@ -7715,7 +7835,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -7775,7 +7895,7 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
@@ -7790,7 +7910,7 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
@@ -7800,7 +7920,7 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
@@ -8020,7 +8140,7 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
@@ -8110,7 +8230,7 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
@@ -8125,12 +8245,12 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
@@ -8140,7 +8260,7 @@
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
@@ -8165,7 +8285,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
@@ -8245,12 +8365,12 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
@@ -8265,7 +8385,7 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
@@ -8275,7 +8395,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
@@ -8520,7 +8640,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -8580,7 +8700,7 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
@@ -8605,7 +8725,7 @@
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
@@ -8620,7 +8740,7 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
@@ -8630,7 +8750,7 @@
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
@@ -8655,7 +8775,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
@@ -8720,7 +8840,7 @@
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
@@ -8735,7 +8855,7 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
@@ -8745,7 +8865,7 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
@@ -8965,7 +9085,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
@@ -9025,7 +9145,7 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
@@ -9045,7 +9165,7 @@
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -9180,7 +9300,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -16150,7 +16270,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -16160,7 +16280,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -16170,7 +16290,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -16180,7 +16300,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -16235,7 +16355,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -16250,7 +16370,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -16260,7 +16380,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -16455,7 +16575,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -16465,12 +16585,12 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
@@ -16520,12 +16640,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -16540,7 +16660,7 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -16555,17 +16675,17 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -16590,12 +16710,12 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
@@ -16630,12 +16750,12 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -16650,17 +16770,17 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -16685,17 +16805,17 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
@@ -16715,12 +16835,12 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
@@ -16745,12 +16865,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -16760,7 +16880,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -16860,7 +16980,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -16880,7 +17000,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -16895,7 +17015,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -16925,12 +17045,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -16940,7 +17060,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -16950,7 +17070,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -16960,12 +17080,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -16980,7 +17100,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -16995,7 +17115,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -17010,7 +17130,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -17020,7 +17140,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -17030,17 +17150,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
     </row>
   </sheetData>
@@ -17060,17 +17180,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -17080,7 +17200,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -17090,17 +17210,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -17110,7 +17230,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -17120,17 +17240,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -17140,7 +17260,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -17150,17 +17270,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -17170,7 +17290,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
     </row>
   </sheetData>
@@ -17260,17 +17380,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -17280,7 +17400,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -17290,12 +17410,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -17305,7 +17425,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -17315,22 +17435,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -17340,12 +17460,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -17355,7 +17475,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -17365,12 +17485,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -17380,7 +17500,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -17390,12 +17510,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -17435,17 +17555,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -17455,7 +17575,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -17465,12 +17585,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -17480,7 +17600,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -17490,22 +17610,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -17515,12 +17635,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -17530,7 +17650,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -17540,12 +17660,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -17555,7 +17675,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -17565,12 +17685,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -17630,12 +17750,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -17650,22 +17770,22 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -17675,7 +17795,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -17726,12 +17846,12 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
@@ -17741,7 +17861,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -21791,7 +21911,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21805,15 +21925,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B6" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -21823,7 +21943,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -21839,7 +21959,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -21903,10 +22023,10 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="C21" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -21921,26 +22041,26 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B28" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -21965,7 +22085,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -21973,22 +22093,22 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -21996,26 +22116,26 @@
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="B41" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="B42" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="C42" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -22036,7 +22156,7 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -22061,7 +22181,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -22071,17 +22191,17 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -22089,15 +22209,15 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="B57" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -22118,7 +22238,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -22128,7 +22248,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -22158,7 +22278,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -22166,15 +22286,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="B71" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -22187,7 +22307,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="B75" t="s">
         <v>50</v>
@@ -22195,7 +22315,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -22225,20 +22345,20 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="B83" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="B84" t="s">
         <v>50</v>
@@ -22259,7 +22379,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -22269,15 +22389,15 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B90" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -22292,13 +22412,13 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -22308,10 +22428,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B96" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -22321,7 +22441,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="B98" t="s">
         <v>50</v>
@@ -22345,7 +22465,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -22353,7 +22473,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -22361,10 +22481,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="B103" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -22384,17 +22504,17 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -22402,10 +22522,10 @@
         <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="C110" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -22420,13 +22540,13 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -22436,10 +22556,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="B115" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -22449,7 +22569,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="B117" t="s">
         <v>50</v>
@@ -22473,7 +22593,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -22481,7 +22601,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="B121" t="s">
         <v>50</v>
@@ -22489,10 +22609,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="B122" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -22512,17 +22632,17 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -22530,10 +22650,10 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="C129" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -22783,12 +22903,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -22798,7 +22918,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -22893,7 +23013,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -22922,7 +23042,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -22947,12 +23067,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -22962,7 +23082,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -22972,7 +23092,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -22997,7 +23117,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -23012,7 +23132,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -23027,7 +23147,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -23037,7 +23157,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -23047,17 +23167,17 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
     </row>
   </sheetData>
@@ -24982,10 +25102,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321ADDCB-9907-D549-8B19-C2BCDF487767}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+      <selection sqref="A1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25065,77 +25185,86 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -25172,16 +25301,36 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1473</v>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25222,7 +25371,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -25252,7 +25401,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -25267,7 +25416,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -25292,7 +25441,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -25307,7 +25456,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -25332,7 +25481,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -25347,7 +25496,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -25372,7 +25521,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
@@ -25397,274 +25546,226 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE75502-0FCB-7D42-8120-7FEB98E82DE3}">
-  <dimension ref="A3:B119"/>
+  <dimension ref="A3:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1712</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1727</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1730</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1484</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1486</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1488</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1488</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1484</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1484</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1493</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1495</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1484</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1486</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1486</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1488</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1500</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -25674,331 +25775,497 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1731</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1736</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1738</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1740</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1745</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1631</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1631</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1758</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>135</v>
       </c>
     </row>
@@ -26019,12 +26286,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -26034,7 +26301,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -26134,12 +26401,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -26159,17 +26426,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -26179,7 +26446,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -26189,7 +26456,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -26199,7 +26466,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -26209,7 +26476,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -26219,7 +26486,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -26229,12 +26496,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
